--- a/callbackhell.xlsx
+++ b/callbackhell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zayye\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8DFBA9-37BF-4057-B78F-0DC6DE213D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3014CE3-6697-430C-8B21-3F154634DA92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12946" yWindow="0" windowWidth="13232" windowHeight="14047" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="396">
   <si>
     <t>function processUserPayment(userId, paymentMethod, amount) {
   fetchUserDetailsFromDatabase(userId, function(userDetails) {
@@ -7711,6 +7711,12 @@
     throw new Error(error.message);
   }
 };</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -8031,10 +8037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B400"/>
+  <dimension ref="A1:B401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="D400" sqref="D400"/>
+    <sheetView tabSelected="1" topLeftCell="A400" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
+      <selection activeCell="M401" sqref="M401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -8042,97 +8048,97 @@
     <col min="1" max="1" width="57.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="34.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="34.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="399.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="399.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -8140,79 +8146,79 @@
     </row>
     <row r="13" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -8220,79 +8226,79 @@
     </row>
     <row r="23" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -8300,47 +8306,47 @@
     </row>
     <row r="33" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -8348,55 +8354,55 @@
     </row>
     <row r="39" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="B43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -8404,7 +8410,7 @@
     </row>
     <row r="46" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8412,7 +8418,7 @@
     </row>
     <row r="47" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -8420,7 +8426,7 @@
     </row>
     <row r="48" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8428,23 +8434,23 @@
     </row>
     <row r="49" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8452,7 +8458,7 @@
     </row>
     <row r="52" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8460,7 +8466,7 @@
     </row>
     <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8468,23 +8474,23 @@
     </row>
     <row r="54" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="399.4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="399.4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -8492,7 +8498,7 @@
     </row>
     <row r="57" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -8500,23 +8506,23 @@
     </row>
     <row r="58" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -8524,23 +8530,23 @@
     </row>
     <row r="61" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -8548,7 +8554,7 @@
     </row>
     <row r="64" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8556,7 +8562,7 @@
     </row>
     <row r="65" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8564,7 +8570,7 @@
     </row>
     <row r="66" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -8572,23 +8578,23 @@
     </row>
     <row r="67" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8596,63 +8602,63 @@
     </row>
     <row r="70" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="B74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -8660,7 +8666,7 @@
     </row>
     <row r="78" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -8668,7 +8674,7 @@
     </row>
     <row r="79" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -8676,55 +8682,55 @@
     </row>
     <row r="80" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" ht="399.4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="399.4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8732,55 +8738,55 @@
     </row>
     <row r="87" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -8788,7 +8794,7 @@
     </row>
     <row r="94" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -8796,255 +8802,255 @@
     </row>
     <row r="95" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="B98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="B99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="B103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="B106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="B108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="B112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="B116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="B118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="B119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="B120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="B121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B122">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="B125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -9052,7 +9058,7 @@
     </row>
     <row r="127" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -9060,135 +9066,135 @@
     </row>
     <row r="128" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="B129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="B131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="B134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B134">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="B135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="B136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="B138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="B140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="B141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="B142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="B143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -9196,95 +9202,95 @@
     </row>
     <row r="145" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="B146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="B147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -9292,7 +9298,7 @@
     </row>
     <row r="157" spans="1:2" ht="214" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -9300,15 +9306,15 @@
     </row>
     <row r="158" spans="1:2" ht="214" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -9316,95 +9322,95 @@
     </row>
     <row r="160" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="B162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="B163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B167">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B168">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="B169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -9412,63 +9418,63 @@
     </row>
     <row r="172" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="B173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="B174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="B175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="B176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="B178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -9476,159 +9482,159 @@
     </row>
     <row r="180" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="B183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="B186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="B188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B192">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="B193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="B194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="B196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B196">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B197">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="B198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -9636,167 +9642,167 @@
     </row>
     <row r="200" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B200">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="71.349999999999994" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="114.15" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="B219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
-        <v>219</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -9804,39 +9810,39 @@
     </row>
     <row r="221" spans="1:2" ht="214" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="B224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
-        <v>224</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -9844,151 +9850,151 @@
     </row>
     <row r="226" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="B243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
-        <v>243</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -9996,143 +10002,143 @@
     </row>
     <row r="245" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+      <c r="B246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+      <c r="B247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+      <c r="B250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+      <c r="B253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+      <c r="B254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="B256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+      <c r="B258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="B259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="B260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
         <v>260</v>
-      </c>
-      <c r="B261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -10140,39 +10146,39 @@
     </row>
     <row r="263" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+      <c r="B265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+      <c r="B266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="B266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
-        <v>266</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -10180,119 +10186,119 @@
     </row>
     <row r="268" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+      <c r="B270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+      <c r="B271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+      <c r="B272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="B272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+      <c r="B273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+      <c r="B276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
+      <c r="B277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+      <c r="B280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
+      <c r="B281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
         <v>280</v>
-      </c>
-      <c r="B281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
-        <v>281</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -10300,191 +10306,191 @@
     </row>
     <row r="283" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
+      <c r="B284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+      <c r="B285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+      <c r="B290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="B292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+      <c r="B293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+      <c r="B294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+      <c r="B296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
+      <c r="B297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="B298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+      <c r="B301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+      <c r="B302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -10492,7 +10498,7 @@
     </row>
     <row r="307" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -10500,111 +10506,111 @@
     </row>
     <row r="308" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -10612,39 +10618,39 @@
     </row>
     <row r="322" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -10652,23 +10658,23 @@
     </row>
     <row r="327" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="B328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -10676,7 +10682,7 @@
     </row>
     <row r="330" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -10684,31 +10690,31 @@
     </row>
     <row r="331" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -10716,143 +10722,143 @@
     </row>
     <row r="335" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="128.4" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -10860,31 +10866,31 @@
     </row>
     <row r="353" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="370.9" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -10892,239 +10898,239 @@
     </row>
     <row r="357" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="385.15" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" ht="299.55" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" ht="313.85000000000002" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" ht="342.35" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" ht="356.6" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" ht="328.1" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" ht="256.75" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="B376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" ht="228.25" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" ht="242.5" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" ht="285.3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:2" ht="214" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
-        <v>379</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -11132,63 +11138,63 @@
     </row>
     <row r="387" spans="1:2" ht="214" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" ht="214" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" ht="199.7" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" ht="185.45" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" ht="171.2" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="B392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -11196,7 +11202,7 @@
     </row>
     <row r="395" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -11204,7 +11210,7 @@
     </row>
     <row r="396" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -11212,33 +11218,41 @@
     </row>
     <row r="397" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" ht="156.9" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" ht="142.65" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" ht="271.05" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B400">
+      <c r="B401">
         <v>0</v>
       </c>
     </row>
